--- a/用例数据/沪A/差异化股息红利税/测试结果.xlsx
+++ b/用例数据/沪A/差异化股息红利税/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -1150,17 +1150,20 @@
   <dimension ref="A1:EI411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>258</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>246</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>250</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>254</v>
       </c>
@@ -3254,411 +3257,411 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3674,9 +3677,9 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3947,8 +3950,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3960,15 +3963,16 @@
   <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -4766,13 +4770,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/差异化股息红利税/测试结果.xlsx
+++ b/用例数据/沪A/差异化股息红利税/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="249">
   <si>
     <t>IMPTIME</t>
   </si>
@@ -248,9 +248,6 @@
     <t>000001</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>2020042600012556</t>
   </si>
   <si>
@@ -281,18 +278,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20221024195646</t>
-  </si>
-  <si>
-    <t>20221024000000</t>
-  </si>
-  <si>
-    <t>20221023000000</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -383,9 +368,6 @@
     <t>_JSM</t>
   </si>
   <si>
-    <t>20140</t>
-  </si>
-  <si>
     <t>0.00000000</t>
   </si>
   <si>
@@ -707,15 +689,9 @@
     <t>ADJUSTEDFEEFLAG</t>
   </si>
   <si>
-    <t>30050046</t>
-  </si>
-  <si>
     <t>005_005_059</t>
   </si>
   <si>
-    <t>20221101171355</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
@@ -734,24 +710,15 @@
     <t>108.000</t>
   </si>
   <si>
-    <t>1002088590.810</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
     <t>99998</t>
   </si>
   <si>
-    <t>计税日期：2022-10-24 ,计税序号：2020042600012555</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>000006945740</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -761,67 +728,46 @@
     <t>0.000000</t>
   </si>
   <si>
-    <t>30050048</t>
-  </si>
-  <si>
-    <t>1002088482.810</t>
-  </si>
-  <si>
-    <t>计税日期：2022-11-01 ,计税序号：2020042600012555</t>
-  </si>
-  <si>
-    <t>000006945741</t>
-  </si>
-  <si>
-    <t>30050050</t>
-  </si>
-  <si>
-    <t>21557002.560</t>
-  </si>
-  <si>
-    <t>计税日期：2022-10-24 ,计税序号：2020042600012556</t>
-  </si>
-  <si>
-    <t>000006945742</t>
-  </si>
-  <si>
-    <t>30050052</t>
-  </si>
-  <si>
-    <t>21556894.560</t>
-  </si>
-  <si>
-    <t>计税日期：2022-11-01 ,计税序号：2020042600012556</t>
-  </si>
-  <si>
-    <t>000006945743</t>
-  </si>
-  <si>
-    <t>30050054</t>
-  </si>
-  <si>
-    <t>8802</t>
-  </si>
-  <si>
-    <t>99999892.000</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
     <t>99999</t>
   </si>
   <si>
-    <t>计税日期：2022-10-24 ,计税序号：2020042600012557</t>
-  </si>
-  <si>
-    <t>000006945744</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>20221202000000</t>
+  </si>
+  <si>
+    <t>20221202223934</t>
+  </si>
+  <si>
+    <t>30201721</t>
+  </si>
+  <si>
+    <t>20221202235959</t>
+  </si>
+  <si>
+    <t>20221203102535</t>
+  </si>
+  <si>
+    <t>17614100.040</t>
+  </si>
+  <si>
+    <t>计税日期：2022-12-02 ,计税序号：2020042600012555</t>
+  </si>
+  <si>
+    <t>000007065128</t>
+  </si>
+  <si>
+    <t>20221205000000</t>
+  </si>
+  <si>
+    <t>30201724</t>
+  </si>
+  <si>
+    <t>18519931.150</t>
+  </si>
+  <si>
+    <t>计税日期：2022-12-02 ,计税序号：2020042600012556</t>
+  </si>
+  <si>
+    <t>000007065130</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI411"/>
+  <dimension ref="A1:EI405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1165,31 +1111,31 @@
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>41</v>
@@ -1201,94 +1147,94 @@
         <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>45</v>
@@ -1297,115 +1243,115 @@
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>24</v>
@@ -1414,324 +1360,324 @@
         <v>25</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DK1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="DR1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="ED1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EG1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DV1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EI1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>49</v>
@@ -1749,22 +1695,22 @@
         <v>49</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>70</v>
@@ -1773,10 +1719,10 @@
         <v>49</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>70</v>
@@ -1794,55 +1740,55 @@
         <v>46</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>62</v>
@@ -1851,67 +1797,67 @@
         <v>70</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="DK2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DY2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="EE2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="EG2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="EI2" s="1" t="s">
         <v>62</v>
@@ -1919,31 +1865,31 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -1952,121 +1898,121 @@
         <v>74</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>49</v>
@@ -2084,22 +2030,22 @@
         <v>49</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>70</v>
@@ -2108,10 +2054,10 @@
         <v>49</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>70</v>
@@ -2129,55 +2075,55 @@
         <v>46</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="CG3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>62</v>
@@ -2186,1077 +2132,75 @@
         <v>70</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="EG3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="EI3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="EH4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EG5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="EH5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EI5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="DG6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DX6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DY6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EC6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EG6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="EH6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EI6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3656,12 +2600,6 @@
     <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3674,7 +2612,7 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3839,10 +2777,10 @@
         <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>55</v>
@@ -3887,7 +2825,7 @@
         <v>61</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>64</v>
@@ -3923,7 +2861,7 @@
         <v>46</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>51</v>
@@ -3935,19 +2873,19 @@
         <v>71</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AR2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3960,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU13"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3974,7 +2912,7 @@
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4117,10 +3055,10 @@
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -4132,7 +3070,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>52</v>
@@ -4165,13 +3103,13 @@
         <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>61</v>
@@ -4216,13 +3154,13 @@
         <v>46</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>46</v>
@@ -4243,15 +3181,15 @@
         <v>74</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
@@ -4263,16 +3201,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>55</v>
@@ -4296,13 +3234,13 @@
         <v>58</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>61</v>
@@ -4317,7 +3255,7 @@
         <v>61</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>64</v>
@@ -4347,13 +3285,13 @@
         <v>46</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>46</v>
@@ -4362,421 +3300,28 @@
         <v>71</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/差异化股息红利税/测试结果.xlsx
+++ b/用例数据/沪A/差异化股息红利税/测试结果.xlsx
@@ -299,475 +299,478 @@
     <t>KNOCKPRICE</t>
   </si>
   <si>
+    <t>RIGHTOWNFLAG</t>
+  </si>
+  <si>
+    <t>BANKID</t>
+  </si>
+  <si>
+    <t>KNOCKQTY</t>
+  </si>
+  <si>
+    <t>BUSINESSCODE</t>
+  </si>
+  <si>
+    <t>STAMPTAX</t>
+  </si>
+  <si>
+    <t>HANDLINGFEE</t>
+  </si>
+  <si>
+    <t>EXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>STKMNGFEE</t>
+  </si>
+  <si>
+    <t>COMMISION</t>
+  </si>
+  <si>
+    <t>SETTLEMODE</t>
+  </si>
+  <si>
+    <t>VENTUREFEE</t>
+  </si>
+  <si>
+    <t>RECKONINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLEDATE</t>
+  </si>
+  <si>
+    <t>EXCHRATE</t>
+  </si>
+  <si>
+    <t>SECUAMT</t>
+  </si>
+  <si>
+    <t>SETTLESECUAMT</t>
+  </si>
+  <si>
+    <t>LISTEDSTATUS</t>
+  </si>
+  <si>
+    <t>PERMITPHONE</t>
+  </si>
+  <si>
+    <t>OPERATIONMAC</t>
+  </si>
+  <si>
+    <t>OFFERTIME</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>_JSM</t>
+  </si>
+  <si>
+    <t>0.00000000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>00W40</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>BRIEFID</t>
+  </si>
+  <si>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>BANKSERIALNUM</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>STKTYPE</t>
+  </si>
+  <si>
+    <t>TRADETYPE</t>
+  </si>
+  <si>
+    <t>OPTMODE</t>
+  </si>
+  <si>
+    <t>OPTID</t>
+  </si>
+  <si>
+    <t>RECKONINGAMT</t>
+  </si>
+  <si>
+    <t>KNOCKAMT</t>
+  </si>
+  <si>
+    <t>POSTAMT</t>
+  </si>
+  <si>
+    <t>POSTQTY</t>
+  </si>
+  <si>
+    <t>STANDARDCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>TRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>TRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>PERORDERFEE</t>
+  </si>
+  <si>
+    <t>WITHDRAWFEE</t>
+  </si>
+  <si>
+    <t>KNOCKFEE</t>
+  </si>
+  <si>
+    <t>OPTLEVEL</t>
+  </si>
+  <si>
+    <t>CUSTNAME</t>
+  </si>
+  <si>
+    <t>BROKERID</t>
+  </si>
+  <si>
+    <t>OPTBRANCHID</t>
+  </si>
+  <si>
+    <t>COSTCENTERID</t>
+  </si>
+  <si>
+    <t>NOTENUM</t>
+  </si>
+  <si>
+    <t>DEPOSITINTEREST</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+  </si>
+  <si>
+    <t>SALESID</t>
+  </si>
+  <si>
+    <t>UNDOFLAG</t>
+  </si>
+  <si>
+    <t>CHECKORCASH</t>
+  </si>
+  <si>
+    <t>ACCOUNTINGFLAG</t>
+  </si>
+  <si>
+    <t>AUDITOPTID1</t>
+  </si>
+  <si>
+    <t>AUDITOPTID2</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>ACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>FULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>BANKACCTID</t>
+  </si>
+  <si>
+    <t>BANKAMT</t>
+  </si>
+  <si>
+    <t>SELFFLAG</t>
+  </si>
+  <si>
+    <t>BANKCONTRACTNUM</t>
+  </si>
+  <si>
+    <t>CHARGETYPE</t>
+  </si>
+  <si>
+    <t>DISCOUNTAMT</t>
+  </si>
+  <si>
+    <t>OVERDUEAMT</t>
+  </si>
+  <si>
+    <t>CONFIRMRESULT</t>
+  </si>
+  <si>
+    <t>AUDITOPTID</t>
+  </si>
+  <si>
+    <t>CONFIRMTIME</t>
+  </si>
+  <si>
+    <t>TODAYCHARGEFLAG</t>
+  </si>
+  <si>
+    <t>RECKONINGCHECKFLAG</t>
+  </si>
+  <si>
+    <t>STKRECKCHKFLAG</t>
+  </si>
+  <si>
+    <t>CUSTODYMODE</t>
+  </si>
+  <si>
+    <t>CONFIRMFEE</t>
+  </si>
+  <si>
+    <t>AGENCYFEE</t>
+  </si>
+  <si>
+    <t>ORDERSTKID</t>
+  </si>
+  <si>
+    <t>INTERNALBIZMARK</t>
+  </si>
+  <si>
+    <t>CREDITSTOCKFLAG</t>
+  </si>
+  <si>
+    <t>TRANSACTIONREF</t>
+  </si>
+  <si>
+    <t>RMSTRADEID</t>
+  </si>
+  <si>
+    <t>INTERESTMODE</t>
+  </si>
+  <si>
+    <t>KNOCKQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBANKID</t>
+  </si>
+  <si>
+    <t>INTERNALORDERTYPE</t>
+  </si>
+  <si>
+    <t>CUSTBANKACCTID</t>
+  </si>
+  <si>
+    <t>CUSTBANKTRANSPERSION</t>
+  </si>
+  <si>
+    <t>TACODE</t>
+  </si>
+  <si>
+    <t>SETTLEMENTMETHOD</t>
+  </si>
+  <si>
+    <t>PROJECTID</t>
+  </si>
+  <si>
+    <t>DELIVERYTYPE</t>
+  </si>
+  <si>
+    <t>TAACCOUNTID</t>
+  </si>
+  <si>
+    <t>CREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>SUBCLIENTID</t>
+  </si>
+  <si>
+    <t>ISSOLICITED</t>
+  </si>
+  <si>
+    <t>BASKETID</t>
+  </si>
+  <si>
+    <t>EXTERIORACCTID</t>
+  </si>
+  <si>
+    <t>TDELIVERFLAG</t>
+  </si>
+  <si>
+    <t>OFFSETFLAG</t>
+  </si>
+  <si>
+    <t>EXCHMARGINAMT</t>
+  </si>
+  <si>
+    <t>CUSTMARGINAMT</t>
+  </si>
+  <si>
+    <t>CLOSEPNL</t>
+  </si>
+  <si>
+    <t>REALTIMEPNL</t>
+  </si>
+  <si>
+    <t>OPENDATE</t>
+  </si>
+  <si>
+    <t>OPENKNOCKCODE</t>
+  </si>
+  <si>
+    <t>TRADECURRENCYID</t>
+  </si>
+  <si>
+    <t>TRADERECKONINGAMT</t>
+  </si>
+  <si>
+    <t>SETTLEKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEFULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>SETTLESTAMPTAX</t>
+  </si>
+  <si>
+    <t>SETTLECOMMISION</t>
+  </si>
+  <si>
+    <t>SETTLETRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLERECKONINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLETRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>SETTLEHANDLINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLESTKMNGFEE</t>
+  </si>
+  <si>
+    <t>SETTLEEXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLEVENTUREFEE</t>
+  </si>
+  <si>
+    <t>SHAREATTR</t>
+  </si>
+  <si>
+    <t>FIRSTOTHERFEE</t>
+  </si>
+  <si>
+    <t>SECONDOTHERFEE</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>005_005_059</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>21国债⑺</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>-108.000</t>
+  </si>
+  <si>
+    <t>108.000</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NONDVP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>20221202000000</t>
+  </si>
+  <si>
+    <t>20221202223934</t>
+  </si>
+  <si>
+    <t>30201721</t>
+  </si>
+  <si>
+    <t>20221202235959</t>
+  </si>
+  <si>
+    <t>20221203102535</t>
+  </si>
+  <si>
+    <t>17614100.040</t>
+  </si>
+  <si>
+    <t>000007065128</t>
+  </si>
+  <si>
+    <t>20221205000000</t>
+  </si>
+  <si>
+    <t>30201724</t>
+  </si>
+  <si>
+    <t>18519931.150</t>
+  </si>
+  <si>
+    <t>000007065130</t>
+  </si>
+  <si>
     <t>SERIALNUM</t>
-  </si>
-  <si>
-    <t>RIGHTOWNFLAG</t>
-  </si>
-  <si>
-    <t>BANKID</t>
-  </si>
-  <si>
-    <t>KNOCKQTY</t>
-  </si>
-  <si>
-    <t>BUSINESSCODE</t>
-  </si>
-  <si>
-    <t>STAMPTAX</t>
-  </si>
-  <si>
-    <t>HANDLINGFEE</t>
-  </si>
-  <si>
-    <t>EXCHTRANSFEE</t>
-  </si>
-  <si>
-    <t>STKMNGFEE</t>
-  </si>
-  <si>
-    <t>COMMISION</t>
-  </si>
-  <si>
-    <t>SETTLEMODE</t>
-  </si>
-  <si>
-    <t>VENTUREFEE</t>
-  </si>
-  <si>
-    <t>RECKONINGFEE</t>
-  </si>
-  <si>
-    <t>SETTLEDATE</t>
-  </si>
-  <si>
-    <t>EXCHRATE</t>
-  </si>
-  <si>
-    <t>SECUAMT</t>
-  </si>
-  <si>
-    <t>SETTLESECUAMT</t>
-  </si>
-  <si>
-    <t>LISTEDSTATUS</t>
-  </si>
-  <si>
-    <t>PERMITPHONE</t>
-  </si>
-  <si>
-    <t>OPERATIONMAC</t>
-  </si>
-  <si>
-    <t>OFFERTIME</t>
-  </si>
-  <si>
-    <t>OTHERFEE4</t>
-  </si>
-  <si>
-    <t>_JSM</t>
-  </si>
-  <si>
-    <t>0.00000000</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>1.0000000000</t>
-  </si>
-  <si>
-    <t>00W40</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>BRIEFID</t>
-  </si>
-  <si>
-    <t>OCCURTIME</t>
-  </si>
-  <si>
-    <t>BANKSERIALNUM</t>
-  </si>
-  <si>
-    <t>STKNAME</t>
-  </si>
-  <si>
-    <t>STKTYPE</t>
-  </si>
-  <si>
-    <t>TRADETYPE</t>
-  </si>
-  <si>
-    <t>OPTMODE</t>
-  </si>
-  <si>
-    <t>OPTID</t>
-  </si>
-  <si>
-    <t>RECKONINGAMT</t>
-  </si>
-  <si>
-    <t>KNOCKAMT</t>
-  </si>
-  <si>
-    <t>POSTAMT</t>
-  </si>
-  <si>
-    <t>POSTQTY</t>
-  </si>
-  <si>
-    <t>STANDARDCOMMISIONFEE</t>
-  </si>
-  <si>
-    <t>TRADETRANSFEE</t>
-  </si>
-  <si>
-    <t>TRANSRULEFEE</t>
-  </si>
-  <si>
-    <t>PERORDERFEE</t>
-  </si>
-  <si>
-    <t>WITHDRAWFEE</t>
-  </si>
-  <si>
-    <t>KNOCKFEE</t>
-  </si>
-  <si>
-    <t>OPTLEVEL</t>
-  </si>
-  <si>
-    <t>CUSTNAME</t>
-  </si>
-  <si>
-    <t>BROKERID</t>
-  </si>
-  <si>
-    <t>OPTBRANCHID</t>
-  </si>
-  <si>
-    <t>COSTCENTERID</t>
-  </si>
-  <si>
-    <t>NOTENUM</t>
-  </si>
-  <si>
-    <t>DEPOSITINTEREST</t>
-  </si>
-  <si>
-    <t>DEPOSITSUM</t>
-  </si>
-  <si>
-    <t>SALESID</t>
-  </si>
-  <si>
-    <t>UNDOFLAG</t>
-  </si>
-  <si>
-    <t>CHECKORCASH</t>
-  </si>
-  <si>
-    <t>ACCOUNTINGFLAG</t>
-  </si>
-  <si>
-    <t>AUDITOPTID1</t>
-  </si>
-  <si>
-    <t>AUDITOPTID2</t>
-  </si>
-  <si>
-    <t>GETACCOUNTDATE</t>
-  </si>
-  <si>
-    <t>GETACCOUNTNUM</t>
-  </si>
-  <si>
-    <t>ACCUREDINTEREST</t>
-  </si>
-  <si>
-    <t>FULLKNOCKAMT</t>
-  </si>
-  <si>
-    <t>BANKACCTID</t>
-  </si>
-  <si>
-    <t>BANKAMT</t>
-  </si>
-  <si>
-    <t>SELFFLAG</t>
-  </si>
-  <si>
-    <t>BANKCONTRACTNUM</t>
-  </si>
-  <si>
-    <t>CHARGETYPE</t>
-  </si>
-  <si>
-    <t>DISCOUNTAMT</t>
-  </si>
-  <si>
-    <t>OVERDUEAMT</t>
-  </si>
-  <si>
-    <t>CONFIRMRESULT</t>
-  </si>
-  <si>
-    <t>AUDITOPTID</t>
-  </si>
-  <si>
-    <t>CONFIRMTIME</t>
-  </si>
-  <si>
-    <t>TODAYCHARGEFLAG</t>
-  </si>
-  <si>
-    <t>RECKONINGCHECKFLAG</t>
-  </si>
-  <si>
-    <t>STKRECKCHKFLAG</t>
-  </si>
-  <si>
-    <t>CUSTODYMODE</t>
-  </si>
-  <si>
-    <t>CONFIRMFEE</t>
-  </si>
-  <si>
-    <t>AGENCYFEE</t>
-  </si>
-  <si>
-    <t>ORDERSTKID</t>
-  </si>
-  <si>
-    <t>INTERNALBIZMARK</t>
-  </si>
-  <si>
-    <t>CREDITSTOCKFLAG</t>
-  </si>
-  <si>
-    <t>TRANSACTIONREF</t>
-  </si>
-  <si>
-    <t>RMSTRADEID</t>
-  </si>
-  <si>
-    <t>INTERESTMODE</t>
-  </si>
-  <si>
-    <t>KNOCKQTYF</t>
-  </si>
-  <si>
-    <t>CUSTBANKID</t>
-  </si>
-  <si>
-    <t>INTERNALORDERTYPE</t>
-  </si>
-  <si>
-    <t>CUSTBANKACCTID</t>
-  </si>
-  <si>
-    <t>CUSTBANKTRANSPERSION</t>
-  </si>
-  <si>
-    <t>TACODE</t>
-  </si>
-  <si>
-    <t>SETTLEMENTMETHOD</t>
-  </si>
-  <si>
-    <t>PROJECTID</t>
-  </si>
-  <si>
-    <t>DELIVERYTYPE</t>
-  </si>
-  <si>
-    <t>TAACCOUNTID</t>
-  </si>
-  <si>
-    <t>CREDITFUNDFLAG</t>
-  </si>
-  <si>
-    <t>SUBCLIENTID</t>
-  </si>
-  <si>
-    <t>ISSOLICITED</t>
-  </si>
-  <si>
-    <t>BASKETID</t>
-  </si>
-  <si>
-    <t>EXTERIORACCTID</t>
-  </si>
-  <si>
-    <t>TDELIVERFLAG</t>
-  </si>
-  <si>
-    <t>OFFSETFLAG</t>
-  </si>
-  <si>
-    <t>EXCHMARGINAMT</t>
-  </si>
-  <si>
-    <t>CUSTMARGINAMT</t>
-  </si>
-  <si>
-    <t>CLOSEPNL</t>
-  </si>
-  <si>
-    <t>REALTIMEPNL</t>
-  </si>
-  <si>
-    <t>OPENDATE</t>
-  </si>
-  <si>
-    <t>OPENKNOCKCODE</t>
-  </si>
-  <si>
-    <t>TRADECURRENCYID</t>
-  </si>
-  <si>
-    <t>TRADERECKONINGAMT</t>
-  </si>
-  <si>
-    <t>SETTLEKNOCKAMT</t>
-  </si>
-  <si>
-    <t>SETTLEFULLKNOCKAMT</t>
-  </si>
-  <si>
-    <t>SETTLEACCUREDINTEREST</t>
-  </si>
-  <si>
-    <t>SETTLESTAMPTAX</t>
-  </si>
-  <si>
-    <t>SETTLECOMMISION</t>
-  </si>
-  <si>
-    <t>SETTLETRADETRANSFEE</t>
-  </si>
-  <si>
-    <t>SETTLERECKONINGFEE</t>
-  </si>
-  <si>
-    <t>SETTLETRANSRULEFEE</t>
-  </si>
-  <si>
-    <t>SETTLEHANDLINGFEE</t>
-  </si>
-  <si>
-    <t>SETTLESTKMNGFEE</t>
-  </si>
-  <si>
-    <t>SETTLEEXCHTRANSFEE</t>
-  </si>
-  <si>
-    <t>SETTLEVENTUREFEE</t>
-  </si>
-  <si>
-    <t>SHAREATTR</t>
-  </si>
-  <si>
-    <t>FIRSTOTHERFEE</t>
-  </si>
-  <si>
-    <t>SECONDOTHERFEE</t>
-  </si>
-  <si>
-    <t>ADJUSTEDFEEFLAG</t>
-  </si>
-  <si>
-    <t>005_005_059</t>
-  </si>
-  <si>
-    <t>CCB1</t>
-  </si>
-  <si>
-    <t>21国债⑺</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>99990</t>
-  </si>
-  <si>
-    <t>-108.000</t>
-  </si>
-  <si>
-    <t>108.000</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>99998</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>NONDVP</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>20221202000000</t>
-  </si>
-  <si>
-    <t>20221202223934</t>
-  </si>
-  <si>
-    <t>30201721</t>
-  </si>
-  <si>
-    <t>20221202235959</t>
-  </si>
-  <si>
-    <t>20221203102535</t>
-  </si>
-  <si>
-    <t>17614100.040</t>
-  </si>
-  <si>
-    <t>计税日期：2022-12-02 ,计税序号：2020042600012555</t>
-  </si>
-  <si>
-    <t>000007065128</t>
-  </si>
-  <si>
-    <t>20221205000000</t>
-  </si>
-  <si>
-    <t>30201724</t>
-  </si>
-  <si>
-    <t>18519931.150</t>
-  </si>
-  <si>
-    <t>计税日期：2022-12-02 ,计税序号：2020042600012556</t>
-  </si>
-  <si>
-    <t>000007065130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计税日期：2022-12-14 ,计税序号：2020042600012555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计税日期：2022-12-14 ,计税序号：2020042600012556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1095,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BF14" sqref="BF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1107,14 +1110,15 @@
     <col min="10" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1123,7 +1127,7 @@
         <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1132,10 +1136,10 @@
         <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>41</v>
@@ -1153,19 +1157,19 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>3</v>
@@ -1174,7 +1178,7 @@
         <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>91</v>
@@ -1183,58 +1187,58 @@
         <v>87</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>45</v>
@@ -1243,115 +1247,115 @@
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BP1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>24</v>
@@ -1360,189 +1364,189 @@
         <v>25</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DX1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DK1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="EB1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DX1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DZ1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="EF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="EH1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>49</v>
@@ -1551,7 +1555,7 @@
         <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>72</v>
@@ -1569,10 +1573,10 @@
         <v>55</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>84</v>
@@ -1581,76 +1585,76 @@
         <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>84</v>
@@ -1662,22 +1666,22 @@
         <v>73</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>49</v>
@@ -1695,22 +1699,22 @@
         <v>49</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>70</v>
@@ -1719,10 +1723,10 @@
         <v>49</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>70</v>
@@ -1743,52 +1747,52 @@
         <v>85</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>62</v>
@@ -1797,67 +1801,67 @@
         <v>70</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DK2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="EH2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="EI2" s="1" t="s">
         <v>62</v>
@@ -1865,19 +1869,19 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>49</v>
@@ -1886,7 +1890,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>78</v>
@@ -1904,10 +1908,10 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>84</v>
@@ -1916,76 +1920,76 @@
         <v>84</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>84</v>
@@ -1997,22 +2001,22 @@
         <v>73</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>49</v>
@@ -2030,22 +2034,22 @@
         <v>49</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>70</v>
@@ -2054,10 +2058,10 @@
         <v>49</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>70</v>
@@ -2078,52 +2082,52 @@
         <v>85</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CG3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CR3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>62</v>
@@ -2132,67 +2136,67 @@
         <v>70</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DK3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="EH3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="EI3" s="1" t="s">
         <v>62</v>
@@ -2861,7 +2865,7 @@
         <v>46</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>51</v>
@@ -2912,7 +2916,7 @@
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3055,10 +3059,10 @@
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -3070,7 +3074,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>52</v>
@@ -3103,13 +3107,13 @@
         <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>61</v>
@@ -3154,13 +3158,13 @@
         <v>46</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>46</v>
@@ -3186,10 +3190,10 @@
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
@@ -3201,7 +3205,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>52</v>
@@ -3234,13 +3238,13 @@
         <v>58</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>61</v>
@@ -3285,13 +3289,13 @@
         <v>46</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>46</v>

--- a/用例数据/沪A/差异化股息红利税/测试结果.xlsx
+++ b/用例数据/沪A/差异化股息红利税/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="249">
   <si>
     <t>IMPTIME</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>00W40</t>
-  </si>
-  <si>
-    <t>0001</t>
   </si>
   <si>
     <t>BRIEFID</t>
@@ -770,6 +767,10 @@
   </si>
   <si>
     <t>计税日期：2022-12-14 ,计税序号：2020042600012556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,27 +1099,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+    <sheetView topLeftCell="AW1" workbookViewId="0">
       <selection activeCell="BF14" sqref="BF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="52.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1127,7 +1128,7 @@
         <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1136,7 +1137,7 @@
         <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>93</v>
@@ -1157,19 +1158,19 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>3</v>
@@ -1187,43 +1188,43 @@
         <v>87</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>97</v>
@@ -1238,7 +1239,7 @@
         <v>102</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>45</v>
@@ -1247,115 +1248,115 @@
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BQ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>24</v>
@@ -1364,136 +1365,136 @@
         <v>25</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CL1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>106</v>
@@ -1508,22 +1509,22 @@
         <v>110</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="EC1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="ED1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="EE1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="EF1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="EH1" s="1" t="s">
         <v>95</v>
@@ -1532,21 +1533,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>49</v>
@@ -1555,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>72</v>
@@ -1573,10 +1574,10 @@
         <v>55</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>84</v>
@@ -1585,7 +1586,7 @@
         <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>120</v>
@@ -1600,61 +1601,61 @@
         <v>114</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>84</v>
@@ -1666,7 +1667,7 @@
         <v>73</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>74</v>
@@ -1681,7 +1682,7 @@
         <v>116</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>49</v>
@@ -1699,13 +1700,13 @@
         <v>49</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>116</v>
@@ -1714,7 +1715,7 @@
         <v>49</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>70</v>
@@ -1762,37 +1763,37 @@
         <v>49</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>62</v>
@@ -1867,21 +1868,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>49</v>
@@ -1890,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>78</v>
@@ -1908,10 +1909,10 @@
         <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>84</v>
@@ -1920,7 +1921,7 @@
         <v>84</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>120</v>
@@ -1935,61 +1936,61 @@
         <v>114</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>84</v>
@@ -2001,7 +2002,7 @@
         <v>73</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>74</v>
@@ -2016,7 +2017,7 @@
         <v>116</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>49</v>
@@ -2034,13 +2035,13 @@
         <v>49</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>116</v>
@@ -2049,7 +2050,7 @@
         <v>49</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>70</v>
@@ -2097,37 +2098,37 @@
         <v>49</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CR3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>62</v>
@@ -2202,408 +2203,408 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,13 +2616,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -2862,10 +2863,7 @@
         <v>70</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>51</v>
@@ -2892,8 +2890,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2904,19 +2902,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3057,12 +3056,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -3074,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>52</v>
@@ -3107,13 +3106,13 @@
         <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>61</v>
@@ -3158,13 +3157,13 @@
         <v>46</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>46</v>
@@ -3188,12 +3187,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
@@ -3205,7 +3204,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>52</v>
@@ -3238,13 +3237,13 @@
         <v>58</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>61</v>
@@ -3289,13 +3288,13 @@
         <v>46</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>46</v>
@@ -3319,13 +3318,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/差异化股息红利税/测试结果.xlsx
+++ b/用例数据/沪A/差异化股息红利税/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A96745-C6B2-4343-A28A-E964142FB21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="250">
   <si>
     <t>IMPTIME</t>
   </si>
@@ -771,13 +772,17 @@
   </si>
   <si>
     <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_005_059</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EI405"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BF14" sqref="BF14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1543,7 @@
         <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -2613,10 +2618,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
@@ -2899,11 +2904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
